--- a/files_samples/Некорректные_обращения_04_11_10_11_2024.xlsx
+++ b/files_samples/Некорректные_обращения_04_11_10_11_2024.xlsx
@@ -1,379 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$B$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Лист2'!$A$1:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
-  <si>
-    <t>Некорректные обращения. Рейтинг за период 04.11-10.11.2024</t>
-  </si>
-  <si>
-    <t>Оператор</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Процент</t>
-  </si>
-  <si>
-    <t>Жданов Денис Александрович</t>
-  </si>
-  <si>
-    <t>Джабраилова Елена Валерьевна</t>
-  </si>
-  <si>
-    <t>Орищенко Юлия Геннадьевна</t>
-  </si>
-  <si>
-    <t>Силин Егор Владимирович</t>
-  </si>
-  <si>
-    <t>Абдулина Дарья Игоревна</t>
-  </si>
-  <si>
-    <t>Алескарова Кристина Фёдоровна</t>
-  </si>
-  <si>
-    <t>Архангельская Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Баландин Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t>Баринова София Андреевна</t>
-  </si>
-  <si>
-    <t>Бахтиаров Глеб Русланович</t>
-  </si>
-  <si>
-    <t>Гарипова Лейсан Миневелиевна</t>
-  </si>
-  <si>
-    <t>Гарифуллин Булат Дамирович</t>
-  </si>
-  <si>
-    <t>Горных Ксения Сергеевна</t>
-  </si>
-  <si>
-    <t>Гребенюк Полина Максимовна</t>
-  </si>
-  <si>
-    <t>Довыдович Алиса Станиславовна</t>
-  </si>
-  <si>
-    <t>Дыдолева Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>Зиберт Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Идрисалиева Ольга Ивановна</t>
-  </si>
-  <si>
-    <t>Исаева Екатерина Аркадьевна</t>
-  </si>
-  <si>
-    <t>Куликов Максим Геннадьевич</t>
-  </si>
-  <si>
-    <t>Магомедова Патимат Каримуллаевна</t>
-  </si>
-  <si>
-    <t>Маркелов Сергей Алексеевич</t>
-  </si>
-  <si>
-    <t>Матылицкая Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Миргазова Ляйсан Ришатовна</t>
-  </si>
-  <si>
-    <t>Мунасипова Надия Мидхатовна</t>
-  </si>
-  <si>
-    <t>Нагая Анна Марьевна</t>
-  </si>
-  <si>
-    <t>Плетнёв Владислав Евгеньевич</t>
-  </si>
-  <si>
-    <t>Путко Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Рыжкина Екатерина Михайловна</t>
-  </si>
-  <si>
-    <t>Севостьянов Михаил Игоревич</t>
-  </si>
-  <si>
-    <t>Серова Юлия Владимировна</t>
-  </si>
-  <si>
-    <t>Смертина София Сергеевна</t>
-  </si>
-  <si>
-    <t>Сонин Владимир Викторович</t>
-  </si>
-  <si>
-    <t>Стаценко Юлия Валентиновна</t>
-  </si>
-  <si>
-    <t>Степечев Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>Третьяков Даниел Павлович</t>
-  </si>
-  <si>
-    <t>Шаламова Дарья Сергеевна</t>
-  </si>
-  <si>
-    <t>Шартнер Елена Александровна</t>
-  </si>
-  <si>
-    <t>Швачка Мария Юрьевна</t>
-  </si>
-  <si>
-    <t>Шептунова Софья Денисовна</t>
-  </si>
-  <si>
-    <t>Яценко Александра Андреевна</t>
-  </si>
-  <si>
-    <t>Dzhabrailova_E_V(icl)</t>
-  </si>
-  <si>
-    <t>ICL(обучение)</t>
-  </si>
-  <si>
-    <t>Orishchenko_Y_G(icl)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -589,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -740,175 +576,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -962,11 +844,74 @@
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1290,668 +1235,791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="13.8857142857143" customWidth="1"/>
-    <col min="3" max="3" width="10.1142857142857" customWidth="1"/>
-    <col min="4" max="9" width="48" customWidth="1"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="13.8857142857143" customWidth="1" min="2" max="2"/>
+    <col width="10.1142857142857" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Некорректные обращения. Рейтинг за период 8.11-14.11.2024</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="11" t="n"/>
       <c r="D1" s="4">
         <f>SUM(B3:B56)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Оператор</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Процент</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Абдулина Дарья Игоревна</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="9">
         <f>B3/$D$1</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>Путко Екатерина Николаевна</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="9">
         <f>B4/$D$1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Куликов Максим Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="9">
         <f>B5/$D$1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Гребенюк Полина Максимовна</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$D$1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Смертина София Сергеевна</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="9">
         <f>B7/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Горных Ксения Сергеевна</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="9">
         <f>B8/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Силин Егор Владимирович</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="9">
         <f>B9/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Шептунова Софья Денисовна</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="9">
         <f>B10/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Стаценко Юлия Валентиновна</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="9">
         <f>B11/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>Гарифуллин Булат Дамирович</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="9">
         <f>B12/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>Павликов Илья Сергеевич</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="9">
         <f>B13/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Джабраилова Елена Валерьевна</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="9">
         <f>B14/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Орищенко Юлия Геннадьевна</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="9">
         <f>B15/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>Швачка Мария Юрьевна</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="9">
         <f>B16/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>Шамли Алина Алексеевна</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="9">
         <f>B17/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>Сонин Владимир Викторович</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="9">
         <f>B18/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>Ханнанова Елизавета Рустамовна</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="9">
         <f>B19/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>Гарипова Лейсан Миневелиевна</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="9">
         <f>B20/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>Егоров Олег Александрович</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="9">
         <f>B21/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Серова Юлия Владимировна</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="9">
         <f>B22/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>Шаламова Дарья Сергеевна</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="9">
         <f>B23/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>Третьяков Даниел Павлович</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="9">
         <f>B24/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>Довыдович Алиса Станиславовна</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="9">
         <f>B25/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>Архангельская Елена Николаевна</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="9">
         <f>B26/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>Миргазова Ляйсан Ришатовна</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="9">
         <f>B27/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>Зиберт Ольга Николаевна</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="9">
         <f>B28/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Матылицкая Елена Юрьевна</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="9">
         <f>B29/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>Мунасипова Надия Мидхатовна</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="9">
         <f>B30/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>Рыжкина Екатерина Михайловна</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="9">
         <f>B31/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>Севостьянов Михаил Игоревич</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="9">
         <f>B32/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>Плетнёв Владислав Евгеньевич</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="9">
         <f>B33/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>Жевнер Григорий Павлович</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="9">
         <f>B34/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>Маркелов Сергей Алексеевич</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="9">
         <f>B35/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>Обучение 2</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="9">
         <f>B36/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>Жданов Денис Александрович</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="9">
         <f>B37/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>Шартнер Елена Александровна</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="9">
         <f>B38/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Обучение ICL</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C39" s="9">
         <f>B39/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>Баландин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="9">
         <f>B40/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>Баринова София Андреевна</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="9">
         <f>B41/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>Магомедова Патимат Каримуллаевна</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="9">
         <f>B42/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>Обучение 3</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="9">
         <f>B43/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>Бахтиаров Глеб Русланович</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:C56" si="0">B44/$D$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8">
+        <f>B44/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>Яценко Александра Андреевна</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8">
+        <f>B45/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>Обучение 1</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8">
+        <f>B46/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>Идрисалиева Ольга Ивановна</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C47" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8">
+        <f>B47/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>Исаева Екатерина Аркадьевна</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8">
+        <f>B48/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>Киселева Дарина Максимовна</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8">
+        <f>B49/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>Силин Егор Владимирович (Обучение 1)</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8">
+        <f>B50/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>Верле Каролина Валерьевна (Обучение 2)</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8">
+        <f>B51/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n"/>
+      <c r="B52" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8">
+        <f>B52/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n"/>
+      <c r="B53" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8">
+        <f>B53/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n"/>
+      <c r="B54" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8">
+        <f>B54/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n"/>
+      <c r="B55" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8">
+        <f>B55/$D$1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n"/>
+      <c r="B56" s="8" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B56/$D$1</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1959,68 +2027,77 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" ht="15.75"/>
-    <row r="2" ht="45.75" spans="1:2">
-      <c r="A2" s="1">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="45.75" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>1512848</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="30.75" spans="1:2">
-      <c r="A3" s="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Dzhabrailova_E_V(icl)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30.75" customHeight="1">
+      <c r="A3" s="2" t="n">
         <v>1513406</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" ht="30.75" spans="1:2">
-      <c r="A4" s="2">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ICL(обучение)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30.75" customHeight="1">
+      <c r="A4" s="2" t="n">
         <v>1513348</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" ht="30.75" spans="1:2">
-      <c r="A5" s="2">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ICL(обучение)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30.75" customHeight="1">
+      <c r="A5" s="2" t="n">
         <v>1515102</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="45.75" spans="1:2">
-      <c r="A6" s="2">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>ICL(обучение)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45.75" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>1516006</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Orishchenko_Y_G(icl)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B6" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/files_samples/Некорректные_обращения_04_11_10_11_2024.xlsx
+++ b/files_samples/Некорректные_обращения_04_11_10_11_2024.xlsx
@@ -1973,7 +1973,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n"/>
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Павликов Илья Сергеевич </t>
+        </is>
+      </c>
       <c r="B52" s="8" t="n">
         <v>0</v>
       </c>
@@ -1983,7 +1987,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="n"/>
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>Верле Каролина Валерьевна (Обучение 2)</t>
+        </is>
+      </c>
       <c r="B53" s="8" t="n">
         <v>0</v>
       </c>
@@ -1993,7 +2001,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n"/>
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Довыдович Алиса Станиславовна </t>
+        </is>
+      </c>
       <c r="B54" s="8" t="n">
         <v>0</v>
       </c>
@@ -2003,7 +2015,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="n"/>
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Шептунова Софья Денисовна</t>
+        </is>
+      </c>
       <c r="B55" s="8" t="n">
         <v>0</v>
       </c>
